--- a/ref/jce_calcs.xlsx
+++ b/ref/jce_calcs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\44563\jce4\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\44563\jce3\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -919,21 +919,6 @@
     <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,6 +928,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42683.470973379626</v>
+        <v>42692.683951041668</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
         <f>VLOOKUP(D28,flooringCoatings!$B:$G,6, FALSE)</f>
         <v>72.67</v>
       </c>
-      <c r="G28" s="61" t="str">
+      <c r="G28" s="56" t="str">
         <f>VLOOKUP(D28,flooringCoatings!$B:$G,4, FALSE)</f>
         <v>gal</v>
       </c>
@@ -1799,7 +1799,7 @@
         <f>VLOOKUP(D29,flooringCoatings!$B:$G,6, FALSE)</f>
         <v>77.45</v>
       </c>
-      <c r="G29" s="61" t="str">
+      <c r="G29" s="56" t="str">
         <f>VLOOKUP(D29,flooringCoatings!$B:$G,4, FALSE)</f>
         <v>gal</v>
       </c>
@@ -2035,34 +2035,34 @@
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="57" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="53" t="s">
+      <c r="I49" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="53" t="s">
+      <c r="J49" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="53" t="s">
+      <c r="K49" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L49" s="53" t="s">
+      <c r="L49" s="57" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2070,18 +2070,18 @@
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42683.470973379626</v>
+        <v>42692.683951041668</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3337,10 +3337,10 @@
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3355,10 +3355,10 @@
       <c r="D23" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="57"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -3367,10 +3367,10 @@
       <c r="C24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="57"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -3815,34 +3815,34 @@
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="57" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H50" s="53" t="s">
+      <c r="H50" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="53" t="s">
+      <c r="I50" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="53" t="s">
+      <c r="J50" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="53" t="s">
+      <c r="K50" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L50" s="53" t="s">
+      <c r="L50" s="57" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3850,18 +3850,18 @@
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -4740,6 +4740,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:L51"/>
@@ -4747,11 +4752,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="I50:I51"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42683.470973379626</v>
+        <v>42692.683951041668</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5632,34 +5632,34 @@
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="57" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H50" s="53" t="s">
+      <c r="H50" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="53" t="s">
+      <c r="I50" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="53" t="s">
+      <c r="J50" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="53" t="s">
+      <c r="K50" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L50" s="53" t="s">
+      <c r="L50" s="57" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5667,18 +5667,18 @@
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -6578,173 +6578,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="58"/>
+    <col min="1" max="1" width="9.140625" style="53"/>
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="20" style="58" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="20" style="53" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="59"/>
+    <col min="6" max="6" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="53" t="s">
         <v>170</v>
       </c>
       <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="54" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="53">
         <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="53">
         <v>10</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="54">
         <v>56.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="53">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="53">
         <v>100</v>
       </c>
       <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="53">
         <v>20</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="54">
         <v>50.38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="53">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="53">
         <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="53">
         <v>30</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="54">
         <v>77.45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="53">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="53">
         <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="53">
         <v>40</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="54">
         <v>72.67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="53">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="53">
         <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="53">
         <v>50</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="54">
         <v>113.15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="53">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="53">
         <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="53">
         <v>60</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="54">
         <v>66.400000000000006</v>
       </c>
     </row>

--- a/ref/jce_calcs.xlsx
+++ b/ref/jce_calcs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -935,14 +935,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1318,8 +1318,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42692.683951041668</v>
+        <v>42695.67912789352</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42692.683951041668</v>
+        <v>42695.67912789352</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3337,10 +3337,10 @@
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3355,10 +3355,10 @@
       <c r="D23" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -3367,10 +3367,10 @@
       <c r="C24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -4740,11 +4740,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:L51"/>
@@ -4752,6 +4747,11 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D8" s="36">
         <f ca="1">NOW()</f>
-        <v>42692.683951041668</v>
+        <v>42695.67912789352</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
